--- a/v0/locations.xlsx
+++ b/v0/locations.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmend\Desktop\RiotAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/934d8c42a9f5e4dc/riot_api_git_clone_folder/Riot_Api/v0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F16A60-C56D-49EE-B808-6D544082BE3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{54F16A60-C56D-49EE-B808-6D544082BE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31FEDC85-ED10-4AD3-91AC-F536EB00A581}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2EF26C13-31AC-4153-8020-1A7F9321C13A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2EF26C13-31AC-4153-8020-1A7F9321C13A}"/>
   </bookViews>
   <sheets>
     <sheet name="Y dist" sheetId="2" r:id="rId1"/>
     <sheet name="normal dist" sheetId="1" r:id="rId2"/>
     <sheet name="working" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="59">
   <si>
     <t>championName</t>
   </si>
@@ -222,6 +223,36 @@
   </si>
   <si>
     <t>bot_area =[(16000,0), (6000,0), (6000,3500), (12000,4000), (13000,10000), (16000,10000)]</t>
+  </si>
+  <si>
+    <t>MatchId</t>
+  </si>
+  <si>
+    <t>ParticipantId</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ValidRoles</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Jungle Flag</t>
+  </si>
+  <si>
+    <t>SupportFlag</t>
+  </si>
+  <si>
+    <t>posRole</t>
   </si>
 </sst>
 </file>
@@ -761,15 +792,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>213622</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>145050</xdr:rowOff>
+      <xdr:colOff>381262</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -792,7 +823,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="137160"/>
+          <a:off x="403860" y="358140"/>
           <a:ext cx="3025402" cy="3116850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4379,7 +4410,7 @@
   <dimension ref="C8:AA29"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4477,7 +4508,7 @@
         <v>41</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" ref="X11:X14" si="1">X10&amp;W11&amp;", "</f>
+        <f t="shared" ref="X11:X13" si="1">X10&amp;W11&amp;", "</f>
         <v xml:space="preserve">[(0,16000), (0,6000), (3950,6000), </v>
       </c>
       <c r="Z11" s="5" t="s">
@@ -5011,11 +5042,406 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D0E6AF-9E66-4E4F-B2AE-8D07D80CFD00}">
+  <dimension ref="G5:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903D0598-6620-4F82-BCF2-7A8E8A1EC120}">
   <dimension ref="H6:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/v0/locations.xlsx
+++ b/v0/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/934d8c42a9f5e4dc/riot_api_git_clone_folder/Riot_Api/v0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{54F16A60-C56D-49EE-B808-6D544082BE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31FEDC85-ED10-4AD3-91AC-F536EB00A581}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{54F16A60-C56D-49EE-B808-6D544082BE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC152E2B-B219-4742-882A-1E6E3940CCF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2EF26C13-31AC-4153-8020-1A7F9321C13A}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="Y dist" sheetId="2" r:id="rId1"/>
     <sheet name="normal dist" sheetId="1" r:id="rId2"/>
     <sheet name="working" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="307">
   <si>
     <t>championName</t>
   </si>
@@ -254,6 +255,750 @@
   <si>
     <t>posRole</t>
   </si>
+  <si>
+    <t>assists number,</t>
+  </si>
+  <si>
+    <t>baronKills number,</t>
+  </si>
+  <si>
+    <t>champExperience number,</t>
+  </si>
+  <si>
+    <t>champLevel number,</t>
+  </si>
+  <si>
+    <t>championId number,</t>
+  </si>
+  <si>
+    <t>championName varchar(255),</t>
+  </si>
+  <si>
+    <t>consumablesPurchased number,</t>
+  </si>
+  <si>
+    <t>damageDealtToBuildings number,</t>
+  </si>
+  <si>
+    <t>damageDealtToObjectives number,</t>
+  </si>
+  <si>
+    <t>damageDealtToTurrets number,</t>
+  </si>
+  <si>
+    <t>damageSelfMitigated number,</t>
+  </si>
+  <si>
+    <t>deaths number,</t>
+  </si>
+  <si>
+    <t>detectorWardsPlaced number,</t>
+  </si>
+  <si>
+    <t>doubleKills number,</t>
+  </si>
+  <si>
+    <t>dragonKills number,</t>
+  </si>
+  <si>
+    <t>firstBloodAssist number,</t>
+  </si>
+  <si>
+    <t>firstBloodKill number,</t>
+  </si>
+  <si>
+    <t>firstTowerAssist number,</t>
+  </si>
+  <si>
+    <t>firstTowerKill number,</t>
+  </si>
+  <si>
+    <t>gameEndedInEarlySurrender number,</t>
+  </si>
+  <si>
+    <t>gameEndedInSurrender number,</t>
+  </si>
+  <si>
+    <t>goldEarned number,</t>
+  </si>
+  <si>
+    <t>goldSpent number,</t>
+  </si>
+  <si>
+    <t>individualPosition varchar(255),</t>
+  </si>
+  <si>
+    <t>inhibitorKills number,</t>
+  </si>
+  <si>
+    <t>inhibitorTakedowns number,</t>
+  </si>
+  <si>
+    <t>inhibitorsLost number,</t>
+  </si>
+  <si>
+    <t>item0 number,</t>
+  </si>
+  <si>
+    <t>item1 number,</t>
+  </si>
+  <si>
+    <t>item2 number,</t>
+  </si>
+  <si>
+    <t>item3 number,</t>
+  </si>
+  <si>
+    <t>item4 number,</t>
+  </si>
+  <si>
+    <t>item5 number,</t>
+  </si>
+  <si>
+    <t>item6 number,</t>
+  </si>
+  <si>
+    <t>itemsPurchased number,</t>
+  </si>
+  <si>
+    <t>killingSprees number,</t>
+  </si>
+  <si>
+    <t>kills number,</t>
+  </si>
+  <si>
+    <t>lane varchar(255),</t>
+  </si>
+  <si>
+    <t>largestCriticalStrike number,</t>
+  </si>
+  <si>
+    <t>largestKillingSpree number,</t>
+  </si>
+  <si>
+    <t>largestMultiKill number,</t>
+  </si>
+  <si>
+    <t>longestTimeSpentLiving number,</t>
+  </si>
+  <si>
+    <t>magicDamageDealt number,</t>
+  </si>
+  <si>
+    <t>magicDamageDealtToChampions number,</t>
+  </si>
+  <si>
+    <t>magicDamageTaken number,</t>
+  </si>
+  <si>
+    <t>neutralMinionsKilled number,</t>
+  </si>
+  <si>
+    <t>objectivesStolen number,</t>
+  </si>
+  <si>
+    <t>objectivesStolenAssists number,</t>
+  </si>
+  <si>
+    <t>participantId number,</t>
+  </si>
+  <si>
+    <t>pentaKills number,</t>
+  </si>
+  <si>
+    <t>physicalDamageDealt number,</t>
+  </si>
+  <si>
+    <t>physicalDamageDealtToChampions number,</t>
+  </si>
+  <si>
+    <t>physicalDamageTaken number,</t>
+  </si>
+  <si>
+    <t>placement number,</t>
+  </si>
+  <si>
+    <t>playerAugment1 number,</t>
+  </si>
+  <si>
+    <t>playerAugment2 number,</t>
+  </si>
+  <si>
+    <t>playerAugment3 number,</t>
+  </si>
+  <si>
+    <t>playerAugment4 number,</t>
+  </si>
+  <si>
+    <t>playerSubteamId number,</t>
+  </si>
+  <si>
+    <t>profileIcon number,</t>
+  </si>
+  <si>
+    <t>puuid varchar(255),</t>
+  </si>
+  <si>
+    <t>quadraKills number,</t>
+  </si>
+  <si>
+    <t>riotIdName varchar(255),</t>
+  </si>
+  <si>
+    <t>riotIdTagline varchar(255),</t>
+  </si>
+  <si>
+    <t>role varchar(255),</t>
+  </si>
+  <si>
+    <t>sightWardsBoughtInGame number,</t>
+  </si>
+  <si>
+    <t>spell1Casts number,</t>
+  </si>
+  <si>
+    <t>spell2Casts number,</t>
+  </si>
+  <si>
+    <t>spell3Casts number,</t>
+  </si>
+  <si>
+    <t>spell4Casts number,</t>
+  </si>
+  <si>
+    <t>subteamPlacement number,</t>
+  </si>
+  <si>
+    <t>summoner1Casts number,</t>
+  </si>
+  <si>
+    <t>summoner1Id number,</t>
+  </si>
+  <si>
+    <t>summoner2Casts number,</t>
+  </si>
+  <si>
+    <t>summoner2Id number,</t>
+  </si>
+  <si>
+    <t>summonerId varchar(255),</t>
+  </si>
+  <si>
+    <t>summonerLevel number,</t>
+  </si>
+  <si>
+    <t>summonerName varchar(255),</t>
+  </si>
+  <si>
+    <t>teamEarlySurrendered number,</t>
+  </si>
+  <si>
+    <t>teamId number,</t>
+  </si>
+  <si>
+    <t>teamPosition varchar(255),</t>
+  </si>
+  <si>
+    <t>timeCCingOthers number,</t>
+  </si>
+  <si>
+    <t>timePlayed number,</t>
+  </si>
+  <si>
+    <t>totalAllyJungleMinionsKilled number,</t>
+  </si>
+  <si>
+    <t>totalDamageDealt number,</t>
+  </si>
+  <si>
+    <t>totalDamageDealtToChampions number,</t>
+  </si>
+  <si>
+    <t>totalDamageShieldedOnTeammates number,</t>
+  </si>
+  <si>
+    <t>totalDamageTaken number,</t>
+  </si>
+  <si>
+    <t>totalEnemyJungleMinionsKilled number,</t>
+  </si>
+  <si>
+    <t>totalHeal number,</t>
+  </si>
+  <si>
+    <t>totalHealsOnTeammates number,</t>
+  </si>
+  <si>
+    <t>totalMinionsKilled number,</t>
+  </si>
+  <si>
+    <t>totalTimeCCDealt number,</t>
+  </si>
+  <si>
+    <t>totalTimeSpentDead number,</t>
+  </si>
+  <si>
+    <t>totalUnitsHealed number,</t>
+  </si>
+  <si>
+    <t>tripleKills number,</t>
+  </si>
+  <si>
+    <t>trueDamageDealt number,</t>
+  </si>
+  <si>
+    <t>trueDamageDealtToChampions number,</t>
+  </si>
+  <si>
+    <t>trueDamageTaken number,</t>
+  </si>
+  <si>
+    <t>turretKills number,</t>
+  </si>
+  <si>
+    <t>turretTakedowns number,</t>
+  </si>
+  <si>
+    <t>turretsLost number,</t>
+  </si>
+  <si>
+    <t>unrealKills number,</t>
+  </si>
+  <si>
+    <t>visionScore number,</t>
+  </si>
+  <si>
+    <t>visionWardsBoughtInGame number,</t>
+  </si>
+  <si>
+    <t>wardsKilled number,</t>
+  </si>
+  <si>
+    <t>wardsPlaced number,</t>
+  </si>
+  <si>
+    <t>win number,</t>
+  </si>
+  <si>
+    <t>matchId varchar(255),</t>
+  </si>
+  <si>
+    <t>region varchar(255),</t>
+  </si>
+  <si>
+    <t>gameDurationSeconds number,</t>
+  </si>
+  <si>
+    <t>gameCreationDate timestamp,</t>
+  </si>
+  <si>
+    <t>queueId number,</t>
+  </si>
+  <si>
+    <t>winFlag number,</t>
+  </si>
+  <si>
+    <t>teamName varchar(255),</t>
+  </si>
+  <si>
+    <t>item1Name varchar(255),</t>
+  </si>
+  <si>
+    <t>item2Name varchar(255),</t>
+  </si>
+  <si>
+    <t>item3Name varchar(255),</t>
+  </si>
+  <si>
+    <t>item4Name varchar(255),</t>
+  </si>
+  <si>
+    <t>item5Name varchar(255),</t>
+  </si>
+  <si>
+    <t>item6Name varchar(255),</t>
+  </si>
+  <si>
+    <t>summoner1Name varchar(255),</t>
+  </si>
+  <si>
+    <t>summoner2Name varchar(255),</t>
+  </si>
+  <si>
+    <t>queueName varchar(255)</t>
+  </si>
+  <si>
+    <t>assists</t>
+  </si>
+  <si>
+    <t>baronKills</t>
+  </si>
+  <si>
+    <t>champExperience</t>
+  </si>
+  <si>
+    <t>champLevel</t>
+  </si>
+  <si>
+    <t>championId</t>
+  </si>
+  <si>
+    <t>consumablesPurchased</t>
+  </si>
+  <si>
+    <t>damageDealtToBuildings</t>
+  </si>
+  <si>
+    <t>damageDealtToObjectives</t>
+  </si>
+  <si>
+    <t>damageDealtToTurrets</t>
+  </si>
+  <si>
+    <t>damageSelfMitigated</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>detectorWardsPlaced</t>
+  </si>
+  <si>
+    <t>doubleKills</t>
+  </si>
+  <si>
+    <t>dragonKills</t>
+  </si>
+  <si>
+    <t>firstBloodAssist</t>
+  </si>
+  <si>
+    <t>firstBloodKill</t>
+  </si>
+  <si>
+    <t>firstTowerAssist</t>
+  </si>
+  <si>
+    <t>firstTowerKill</t>
+  </si>
+  <si>
+    <t>gameEndedInEarlySurrender</t>
+  </si>
+  <si>
+    <t>gameEndedInSurrender</t>
+  </si>
+  <si>
+    <t>goldEarned</t>
+  </si>
+  <si>
+    <t>goldSpent</t>
+  </si>
+  <si>
+    <t>individualPosition</t>
+  </si>
+  <si>
+    <t>inhibitorKills</t>
+  </si>
+  <si>
+    <t>inhibitorTakedowns</t>
+  </si>
+  <si>
+    <t>inhibitorsLost</t>
+  </si>
+  <si>
+    <t>item0</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>item6</t>
+  </si>
+  <si>
+    <t>itemsPurchased</t>
+  </si>
+  <si>
+    <t>killingSprees</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>lane</t>
+  </si>
+  <si>
+    <t>largestCriticalStrike</t>
+  </si>
+  <si>
+    <t>largestKillingSpree</t>
+  </si>
+  <si>
+    <t>largestMultiKill</t>
+  </si>
+  <si>
+    <t>longestTimeSpentLiving</t>
+  </si>
+  <si>
+    <t>magicDamageDealt</t>
+  </si>
+  <si>
+    <t>magicDamageDealtToChampions</t>
+  </si>
+  <si>
+    <t>magicDamageTaken</t>
+  </si>
+  <si>
+    <t>neutralMinionsKilled</t>
+  </si>
+  <si>
+    <t>objectivesStolen</t>
+  </si>
+  <si>
+    <t>objectivesStolenAssists</t>
+  </si>
+  <si>
+    <t>participantId</t>
+  </si>
+  <si>
+    <t>pentaKills</t>
+  </si>
+  <si>
+    <t>physicalDamageDealt</t>
+  </si>
+  <si>
+    <t>physicalDamageDealtToChampions</t>
+  </si>
+  <si>
+    <t>physicalDamageTaken</t>
+  </si>
+  <si>
+    <t>placement</t>
+  </si>
+  <si>
+    <t>playerAugment1</t>
+  </si>
+  <si>
+    <t>playerAugment2</t>
+  </si>
+  <si>
+    <t>playerAugment3</t>
+  </si>
+  <si>
+    <t>playerAugment4</t>
+  </si>
+  <si>
+    <t>playerSubteamId</t>
+  </si>
+  <si>
+    <t>profileIcon</t>
+  </si>
+  <si>
+    <t>puuid</t>
+  </si>
+  <si>
+    <t>quadraKills</t>
+  </si>
+  <si>
+    <t>riotIdName</t>
+  </si>
+  <si>
+    <t>riotIdTagline</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>sightWardsBoughtInGame</t>
+  </si>
+  <si>
+    <t>spell1Casts</t>
+  </si>
+  <si>
+    <t>spell2Casts</t>
+  </si>
+  <si>
+    <t>spell3Casts</t>
+  </si>
+  <si>
+    <t>spell4Casts</t>
+  </si>
+  <si>
+    <t>subteamPlacement</t>
+  </si>
+  <si>
+    <t>summoner1Casts</t>
+  </si>
+  <si>
+    <t>summoner1Id</t>
+  </si>
+  <si>
+    <t>summoner2Casts</t>
+  </si>
+  <si>
+    <t>summoner2Id</t>
+  </si>
+  <si>
+    <t>summonerId</t>
+  </si>
+  <si>
+    <t>summonerLevel</t>
+  </si>
+  <si>
+    <t>summonerName</t>
+  </si>
+  <si>
+    <t>teamEarlySurrendered</t>
+  </si>
+  <si>
+    <t>teamId</t>
+  </si>
+  <si>
+    <t>teamPosition</t>
+  </si>
+  <si>
+    <t>timeCCingOthers</t>
+  </si>
+  <si>
+    <t>timePlayed</t>
+  </si>
+  <si>
+    <t>totalAllyJungleMinionsKilled</t>
+  </si>
+  <si>
+    <t>totalDamageDealt</t>
+  </si>
+  <si>
+    <t>totalDamageDealtToChampions</t>
+  </si>
+  <si>
+    <t>totalDamageShieldedOnTeammates</t>
+  </si>
+  <si>
+    <t>totalDamageTaken</t>
+  </si>
+  <si>
+    <t>totalEnemyJungleMinionsKilled</t>
+  </si>
+  <si>
+    <t>totalHeal</t>
+  </si>
+  <si>
+    <t>totalHealsOnTeammates</t>
+  </si>
+  <si>
+    <t>totalMinionsKilled</t>
+  </si>
+  <si>
+    <t>totalTimeCCDealt</t>
+  </si>
+  <si>
+    <t>totalTimeSpentDead</t>
+  </si>
+  <si>
+    <t>totalUnitsHealed</t>
+  </si>
+  <si>
+    <t>tripleKills</t>
+  </si>
+  <si>
+    <t>trueDamageDealt</t>
+  </si>
+  <si>
+    <t>trueDamageDealtToChampions</t>
+  </si>
+  <si>
+    <t>trueDamageTaken</t>
+  </si>
+  <si>
+    <t>turretKills</t>
+  </si>
+  <si>
+    <t>turretTakedowns</t>
+  </si>
+  <si>
+    <t>turretsLost</t>
+  </si>
+  <si>
+    <t>unrealKills</t>
+  </si>
+  <si>
+    <t>visionScore</t>
+  </si>
+  <si>
+    <t>visionWardsBoughtInGame</t>
+  </si>
+  <si>
+    <t>wardsKilled</t>
+  </si>
+  <si>
+    <t>wardsPlaced</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>matchId</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>gameDurationSeconds</t>
+  </si>
+  <si>
+    <t>gameCreationDate</t>
+  </si>
+  <si>
+    <t>queueId</t>
+  </si>
+  <si>
+    <t>winFlag</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>item1Name</t>
+  </si>
+  <si>
+    <t>item2Name</t>
+  </si>
+  <si>
+    <t>item3Name</t>
+  </si>
+  <si>
+    <t>item4Name</t>
+  </si>
+  <si>
+    <t>item5Name</t>
+  </si>
+  <si>
+    <t>item6Name</t>
+  </si>
+  <si>
+    <t>summoner1Name</t>
+  </si>
+  <si>
+    <t>summoner2Name</t>
+  </si>
+  <si>
+    <t>queueName</t>
+  </si>
+  <si>
+    <t>item0Name</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +1008,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +1056,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,6 +1099,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1332,6 +2085,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5042,10 +5799,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE7333E-6C8A-42D7-9DBB-E199C5503A52}">
+  <dimension ref="C1:EB128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>275</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>277</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>281</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>282</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>283</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>285</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>286</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>287</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>288</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>289</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>290</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>291</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>292</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>293</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>294</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>295</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>297</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>298</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>299</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>301</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>303</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>304</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>305</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="str">
+        <f>TRIM(LEFT(C4,SEARCH(" ",C4)))&amp;","</f>
+        <v>assists,</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="3:132" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F94" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C104" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C105" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C106" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C107" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C108" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C109" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C110" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C111" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C112" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C113" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C114" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F114" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C115" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F115" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C116" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F116" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C118" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F118" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C119" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F119" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C120" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F120" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C121" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F121" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C123" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F123" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C124" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F124" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C125" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F125" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C126" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F126" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C127" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F127" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D0E6AF-9E66-4E4F-B2AE-8D07D80CFD00}">
   <dimension ref="G5:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -5436,7 +7591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903D0598-6620-4F82-BCF2-7A8E8A1EC120}">
   <dimension ref="H6:H12"/>
   <sheetViews>
